--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Clase-trans_dic.xlsx
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01463062822070738</v>
+        <v>0.0157129264943415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02539172595306127</v>
+        <v>0.02592521851048117</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01926202324249843</v>
+        <v>0.02242787655814836</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0246678975838695</v>
+        <v>0.0265325681293534</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06690701457823055</v>
+        <v>0.06611151909854632</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009861757089924704</v>
+        <v>0.009513722194604619</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02460953934774954</v>
+        <v>0.02315150347469087</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04924457918474449</v>
+        <v>0.04979057217873058</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01127468027879629</v>
+        <v>0.01118745767610849</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05008905522265989</v>
+        <v>0.05098162875784194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05678946225032701</v>
+        <v>0.05621923200164897</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07000336020573715</v>
+        <v>0.07075529838868004</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07460500705811698</v>
+        <v>0.07473167895712912</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1094782746887421</v>
+        <v>0.1095722074788372</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02980026942899085</v>
+        <v>0.03162900057760865</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0534572365880655</v>
+        <v>0.0526765076261839</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07443148400103657</v>
+        <v>0.07617597010467056</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.03119774789509228</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.1128511498731974</v>
+        <v>0.1128511498731973</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.03040482504723822</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009641778782950298</v>
+        <v>0.009560769736061719</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005162902275369719</v>
+        <v>0.005070540655114226</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02900537140078797</v>
+        <v>0.02852794602545998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02407050911567414</v>
+        <v>0.02571823786528</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01520716247289476</v>
+        <v>0.01597594826786573</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08897834281131498</v>
+        <v>0.09039578117084617</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01865914133643723</v>
+        <v>0.01857385469580452</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01365214646440714</v>
+        <v>0.01309700473034389</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06219949947362046</v>
+        <v>0.06249800917051718</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03882201439663441</v>
+        <v>0.03806925169048762</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03212493994479661</v>
+        <v>0.03014422009670562</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06275654413220594</v>
+        <v>0.06248672314930646</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07364874465140438</v>
+        <v>0.07658198104333562</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05489460418232401</v>
+        <v>0.05606908641083663</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1402198142080358</v>
+        <v>0.1429331304093842</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04410264558726677</v>
+        <v>0.04560958632198109</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0384731503887189</v>
+        <v>0.03884435542282147</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09095034961716028</v>
+        <v>0.09231550839485374</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.02547256126997231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.08860556578291633</v>
+        <v>0.08860556578291631</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.06344246758310017</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02964644804149893</v>
+        <v>0.02977593872189481</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01421686846840456</v>
+        <v>0.01324396147352881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06847419402841792</v>
+        <v>0.06491263593250576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03867081069850361</v>
+        <v>0.03821121060378991</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09352589697647395</v>
+        <v>0.09258799264252224</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1391037633762826</v>
+        <v>0.1385998583995302</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03748808543832573</v>
+        <v>0.03727211197131402</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03618943828194047</v>
+        <v>0.03729056138086978</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09321005094869916</v>
+        <v>0.09428024442162554</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06626588991327313</v>
+        <v>0.06595241754470962</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04114116284196264</v>
+        <v>0.04252413835091708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1206029498215374</v>
+        <v>0.1167726504676429</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09779499938446957</v>
+        <v>0.09929217249804684</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2165619357246552</v>
+        <v>0.2120054556672427</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2237061342031332</v>
+        <v>0.2208632948765271</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06869412398519027</v>
+        <v>0.06854668365306701</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07264913444313148</v>
+        <v>0.07438279781991573</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1357079067167473</v>
+        <v>0.1393702488461558</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.06151160117668948</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.1089034253572581</v>
+        <v>0.1089034253572582</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.05676396468714805</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0433158949802394</v>
+        <v>0.0424741744739508</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02488863633897762</v>
+        <v>0.02500460701902484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07949749610975732</v>
+        <v>0.07843261642618733</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04331645623005913</v>
+        <v>0.04311328406691266</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04569189578829222</v>
+        <v>0.04556125927969738</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09320880722595207</v>
+        <v>0.09046233203197274</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04544091511843191</v>
+        <v>0.04616790799165359</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03661237897818323</v>
+        <v>0.03736568962758495</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08957705434621438</v>
+        <v>0.08900761675328046</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.070365332498722</v>
+        <v>0.069995191217561</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04710702496927661</v>
+        <v>0.04572924210536778</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1102518011836354</v>
+        <v>0.1095040618101157</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07814345553556894</v>
+        <v>0.07849232037120979</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07950302110608862</v>
+        <v>0.08384633014532043</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1252457920342922</v>
+        <v>0.1249663304743837</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06775870778894433</v>
+        <v>0.06787864899793343</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05498557689617246</v>
+        <v>0.05713402290899723</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1122856753182314</v>
+        <v>0.1137392038932982</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.05524020381270321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.08102389304827853</v>
+        <v>0.08102389304827851</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.1262002205158195</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02057752734932904</v>
+        <v>0.0208921808136929</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04029372113845341</v>
+        <v>0.0409461656256185</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06364879859703118</v>
+        <v>0.06201212346924995</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1036498672960992</v>
+        <v>0.1065974683153526</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09402292931554317</v>
+        <v>0.09849085111646814</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2068294881693559</v>
+        <v>0.2049047974181299</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07359206727885939</v>
+        <v>0.07350270539048033</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07598380749600794</v>
+        <v>0.07513730472705518</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1517359640921474</v>
+        <v>0.1540221873178014</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05449538723294436</v>
+        <v>0.05365813470539527</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07613599626757488</v>
+        <v>0.07850426366638798</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1050512988976576</v>
+        <v>0.1028931672338145</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1524988982052575</v>
+        <v>0.1553963974536157</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1473730929266328</v>
+        <v>0.1504646759199919</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2528155519879256</v>
+        <v>0.2520882552788296</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1061704947470408</v>
+        <v>0.106450679735482</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1068363981401756</v>
+        <v>0.107905094692471</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1846733792800616</v>
+        <v>0.1869627740845199</v>
       </c>
     </row>
     <row r="19">
@@ -1226,25 +1226,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006156201595657365</v>
+        <v>0.005364149110605031</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1120179114434972</v>
+        <v>0.1085410560448142</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09607061174593665</v>
+        <v>0.09606838433610065</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1461672216042164</v>
+        <v>0.1486950585671222</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08987329937590281</v>
+        <v>0.08938123205157926</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07554826818707519</v>
+        <v>0.07576067079621697</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1173007192758856</v>
+        <v>0.1168603725705461</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02265271069399139</v>
+        <v>0.0262191624340714</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01996802898966528</v>
+        <v>0.01982651456871982</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03457888184721538</v>
+        <v>0.03291835540957197</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1520863288438264</v>
+        <v>0.1527218080026202</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1385668006140992</v>
+        <v>0.136264890756605</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1890282027436394</v>
+        <v>0.1927963937868279</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.124038455929224</v>
+        <v>0.123761242298843</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1090452421871106</v>
+        <v>0.110406314088282</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1514445507647475</v>
+        <v>0.1530594242091202</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02980033343785402</v>
+        <v>0.0298107012981321</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02565267398372423</v>
+        <v>0.02597111933774788</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0623145419770967</v>
+        <v>0.06197203097481786</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08334242793974538</v>
+        <v>0.082354204098218</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0796218331690301</v>
+        <v>0.07980564832888315</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1427275952999627</v>
+        <v>0.1415186635808546</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05832339619371438</v>
+        <v>0.05866607182440636</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05520525561699596</v>
+        <v>0.05480668703181991</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1056075950295916</v>
+        <v>0.105649217008749</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04213895291799648</v>
+        <v>0.04262934758954869</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03751396336730434</v>
+        <v>0.03751634730051745</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0782285724420075</v>
+        <v>0.07833213455349118</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1033173928685507</v>
+        <v>0.1024666814031456</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1002596689094187</v>
+        <v>0.09964937949169955</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.161235004573126</v>
+        <v>0.160388937747754</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07106187519596947</v>
+        <v>0.07141272608293577</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06783316248990683</v>
+        <v>0.06655810301900596</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1176446312577674</v>
+        <v>0.1186391139727263</v>
       </c>
     </row>
     <row r="25">
@@ -1622,28 +1622,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6278</v>
+        <v>6742</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13981</v>
+        <v>14275</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6057</v>
+        <v>7053</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8561</v>
+        <v>9208</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>32678</v>
+        <v>32290</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7413</v>
+        <v>7151</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>19101</v>
+        <v>17969</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>51167</v>
+        <v>51734</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4929</v>
+        <v>4891</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21493</v>
+        <v>21876</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31269</v>
+        <v>30955</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22013</v>
+        <v>22249</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25892</v>
+        <v>25936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53470</v>
+        <v>53516</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22400</v>
+        <v>23774</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>41491</v>
+        <v>40885</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>77336</v>
+        <v>79149</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4038</v>
+        <v>4004</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1948</v>
+        <v>1913</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14016</v>
+        <v>13785</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8136</v>
+        <v>8693</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5661</v>
+        <v>5947</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>37651</v>
+        <v>38250</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14121</v>
+        <v>14057</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10232</v>
+        <v>9816</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>56375</v>
+        <v>56645</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16259</v>
+        <v>15943</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12118</v>
+        <v>11371</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30325</v>
+        <v>30194</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24894</v>
+        <v>25886</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>20436</v>
+        <v>20873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>59333</v>
+        <v>60481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>33377</v>
+        <v>34518</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>28836</v>
+        <v>29114</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>82433</v>
+        <v>83671</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18660</v>
+        <v>18741</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7420</v>
+        <v>6912</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>32293</v>
+        <v>30614</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10059</v>
+        <v>9940</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15537</v>
+        <v>15381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26082</v>
+        <v>25987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33347</v>
+        <v>33155</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>24900</v>
+        <v>25657</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>61436</v>
+        <v>62141</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41709</v>
+        <v>41511</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21472</v>
+        <v>22194</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>56878</v>
+        <v>55071</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25439</v>
+        <v>25829</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>35976</v>
+        <v>35219</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41944</v>
+        <v>41411</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>61106</v>
+        <v>60975</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>49985</v>
+        <v>51178</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>89446</v>
+        <v>91860</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>50204</v>
+        <v>49228</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28613</v>
+        <v>28746</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>89979</v>
+        <v>88773</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>33209</v>
+        <v>33053</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>37736</v>
+        <v>37628</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>80272</v>
+        <v>77907</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>87504</v>
+        <v>88904</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>72328</v>
+        <v>73816</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>178532</v>
+        <v>177397</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>81554</v>
+        <v>81125</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>54156</v>
+        <v>52572</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>124788</v>
+        <v>123941</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>59909</v>
+        <v>60177</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>65660</v>
+        <v>69247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>107863</v>
+        <v>107622</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>130481</v>
+        <v>130712</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>108625</v>
+        <v>112869</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>223791</v>
+        <v>226688</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10507</v>
+        <v>10667</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>25011</v>
+        <v>25416</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>36150</v>
+        <v>35221</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>78932</v>
+        <v>81176</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>69412</v>
+        <v>72710</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>171844</v>
+        <v>170245</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>93618</v>
+        <v>93504</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>103258</v>
+        <v>102108</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>212250</v>
+        <v>215448</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27825</v>
+        <v>27398</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>47258</v>
+        <v>48728</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>59665</v>
+        <v>58440</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>116131</v>
+        <v>118338</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>108797</v>
+        <v>111080</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>210052</v>
+        <v>209448</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>135061</v>
+        <v>135418</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>145185</v>
+        <v>146638</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>258324</v>
+        <v>261526</v>
       </c>
     </row>
     <row r="24">
@@ -2345,25 +2345,25 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1460</v>
+        <v>1273</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>124267</v>
+        <v>120410</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>103951</v>
+        <v>103948</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>123406</v>
+        <v>125540</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>123687</v>
+        <v>123009</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>103438</v>
+        <v>103729</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>126862</v>
+        <v>126386</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6046</v>
+        <v>6997</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5734</v>
+        <v>5693</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8203</v>
+        <v>7809</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>168717</v>
+        <v>169422</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>149933</v>
+        <v>147442</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>159593</v>
+        <v>162774</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>170706</v>
+        <v>170324</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>149301</v>
+        <v>151165</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>163789</v>
+        <v>165535</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>101974</v>
+        <v>102010</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>86853</v>
+        <v>87931</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>214516</v>
+        <v>213337</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>295876</v>
+        <v>292368</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>281192</v>
+        <v>281841</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>518871</v>
+        <v>514476</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>406633</v>
+        <v>409022</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>381872</v>
+        <v>379115</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>747477</v>
+        <v>747771</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>144196</v>
+        <v>145874</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>127012</v>
+        <v>127020</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>269300</v>
+        <v>269656</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>366790</v>
+        <v>363770</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>354077</v>
+        <v>351921</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>586153</v>
+        <v>583077</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>495446</v>
+        <v>497892</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>469224</v>
+        <v>460404</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>832673</v>
+        <v>839712</v>
       </c>
     </row>
     <row r="32">
